--- a/Project Details-for-DEV.xlsx
+++ b/Project Details-for-DEV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8621918A-B665-499F-A001-4F479AA41AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,7 +343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +442,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,6 +477,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,6 +578,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -602,6 +630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,11 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,18 +1162,19 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="18">
         <v>16</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="E24" s="18"/>
       <c r="F24" s="8" t="s">
         <v>52</v>
       </c>
@@ -1436,36 +1482,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="C14" r:id="rId6"/>
-    <hyperlink ref="C15" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C27" r:id="rId19"/>
-    <hyperlink ref="C28" r:id="rId20"/>
-    <hyperlink ref="C29" r:id="rId21"/>
-    <hyperlink ref="C30" r:id="rId22"/>
-    <hyperlink ref="C31" r:id="rId23"/>
-    <hyperlink ref="C32" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C34" r:id="rId26"/>
-    <hyperlink ref="C35" r:id="rId27"/>
-    <hyperlink ref="C36" r:id="rId28"/>
-    <hyperlink ref="C37" r:id="rId29"/>
-    <hyperlink ref="C38" r:id="rId30"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId31"/>
@@ -1473,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:E1008"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6563,7 +6609,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1"/>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Project Details-for-DEV.xlsx
+++ b/Project Details-for-DEV.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8621918A-B665-499F-A001-4F479AA41AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>Category</t>
   </si>
@@ -279,13 +278,13 @@
     <t>http://statics.loyicadev.com/100-lp/30/index.html</t>
   </si>
   <si>
-    <t>HOLD</t>
+    <t>Done but changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,23 +577,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -630,23 +612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,11 +787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E24"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>68</v>
@@ -1265,7 +1230,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>52</v>
@@ -1390,9 +1355,6 @@
       <c r="C34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="F34" s="8" t="s">
         <v>52</v>
       </c>
@@ -1411,7 +1373,7 @@
         <v>83</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>52</v>
@@ -1431,7 +1393,7 @@
         <v>84</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>52</v>
@@ -1451,7 +1413,7 @@
         <v>85</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>52</v>
@@ -1482,36 +1444,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C29" r:id="rId21"/>
+    <hyperlink ref="C30" r:id="rId22"/>
+    <hyperlink ref="C31" r:id="rId23"/>
+    <hyperlink ref="C32" r:id="rId24"/>
+    <hyperlink ref="C33" r:id="rId25"/>
+    <hyperlink ref="C34" r:id="rId26"/>
+    <hyperlink ref="C35" r:id="rId27"/>
+    <hyperlink ref="C36" r:id="rId28"/>
+    <hyperlink ref="C37" r:id="rId29"/>
+    <hyperlink ref="C38" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId31"/>
@@ -1519,7 +1481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E1008"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6609,7 +6571,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E22" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Project Details-for-DEV.xlsx
+++ b/Project Details-for-DEV.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Category</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Done but changes</t>
+  </si>
+  <si>
+    <t>URL Change and Final changes</t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H38"/>
+  <dimension ref="A4:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,15 +804,16 @@
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="15"/>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -826,16 +830,19 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -851,11 +858,14 @@
       <c r="E9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2</v>
       </c>
@@ -871,11 +881,14 @@
       <c r="E10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -891,11 +904,14 @@
       <c r="E11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>4</v>
       </c>
@@ -905,14 +921,14 @@
       <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>44006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>5</v>
       </c>
@@ -928,11 +944,14 @@
       <c r="E13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -948,11 +967,14 @@
       <c r="E14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>7</v>
       </c>
@@ -968,11 +990,14 @@
       <c r="E15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>8</v>
       </c>
@@ -988,11 +1013,14 @@
       <c r="E16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>9</v>
       </c>
@@ -1008,11 +1036,14 @@
       <c r="E17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>10</v>
       </c>
@@ -1028,11 +1059,14 @@
       <c r="E18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>11</v>
       </c>
@@ -1048,11 +1082,14 @@
       <c r="E19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>12</v>
       </c>
@@ -1068,11 +1105,14 @@
       <c r="E20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>13</v>
       </c>
@@ -1088,11 +1128,14 @@
       <c r="E21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -1102,11 +1145,11 @@
       <c r="C22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -1119,14 +1162,14 @@
       <c r="D23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>43997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>16</v>
       </c>
@@ -1140,17 +1183,18 @@
         <v>60</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>43996</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <v>43998</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>17</v>
       </c>
@@ -1163,17 +1207,17 @@
       <c r="D25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="9">
+      <c r="H25" s="9">
         <v>43996</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="9">
         <v>43999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>18</v>
       </c>
@@ -1186,17 +1230,17 @@
       <c r="D26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="9">
+      <c r="H26" s="9">
         <v>43998</v>
       </c>
-      <c r="H26" s="9">
+      <c r="I26" s="9">
         <v>43999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>19</v>
       </c>
@@ -1209,17 +1253,17 @@
       <c r="D27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="9">
+      <c r="H27" s="9">
         <v>43998</v>
       </c>
-      <c r="H27" s="9">
+      <c r="I27" s="9">
         <v>44001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>20</v>
       </c>
@@ -1232,17 +1276,17 @@
       <c r="D28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="9">
+      <c r="H28" s="9">
         <v>43996</v>
       </c>
-      <c r="H28" s="9">
+      <c r="I28" s="9">
         <v>43998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1252,14 +1296,14 @@
       <c r="C29" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>44006</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1272,17 +1316,17 @@
       <c r="D30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="9">
+      <c r="H30" s="9">
         <v>43998</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>43999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1295,17 +1339,17 @@
       <c r="D31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="9">
+      <c r="H31" s="9">
         <v>43996</v>
       </c>
-      <c r="H31" s="9">
+      <c r="I31" s="9">
         <v>43998</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -1318,14 +1362,14 @@
       <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>43998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>25</v>
       </c>
@@ -1338,14 +1382,14 @@
       <c r="D33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="9">
+      <c r="H33" s="9">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>26</v>
       </c>
@@ -1355,14 +1399,14 @@
       <c r="C34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="9">
+      <c r="H34" s="9">
         <v>44000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>27</v>
       </c>
@@ -1375,14 +1419,14 @@
       <c r="D35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="9">
+      <c r="H35" s="9">
         <v>44000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>28</v>
       </c>
@@ -1395,14 +1439,14 @@
       <c r="D36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="9">
+      <c r="H36" s="9">
         <v>44000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>29</v>
       </c>
@@ -1415,14 +1459,14 @@
       <c r="D37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="9">
+      <c r="H37" s="9">
         <v>44000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>30</v>
       </c>
@@ -1435,10 +1479,10 @@
       <c r="D38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="9">
+      <c r="H38" s="9">
         <v>44000</v>
       </c>
     </row>

--- a/Project Details-for-DEV.xlsx
+++ b/Project Details-for-DEV.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <t>Category</t>
   </si>
@@ -794,7 +794,7 @@
   <dimension ref="A4:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,6 +1296,9 @@
       <c r="C29" s="17" t="s">
         <v>77</v>
       </c>
+      <c r="D29" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G29" s="8" t="s">
         <v>52</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>52</v>

--- a/Project Details-for-DEV.xlsx
+++ b/Project Details-for-DEV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237D1426-6EB2-43ED-A052-2559AEC87459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <t>Category</t>
   </si>
@@ -287,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,6 +581,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -615,6 +633,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -790,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1217,9 @@
       <c r="D24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="8" t="s">
         <v>52</v>
@@ -1370,18 +1407,20 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="18">
         <v>25</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="8" t="s">
         <v>52</v>
       </c>
@@ -1488,36 +1527,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="C14" r:id="rId6"/>
-    <hyperlink ref="C15" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C27" r:id="rId19"/>
-    <hyperlink ref="C28" r:id="rId20"/>
-    <hyperlink ref="C29" r:id="rId21"/>
-    <hyperlink ref="C30" r:id="rId22"/>
-    <hyperlink ref="C31" r:id="rId23"/>
-    <hyperlink ref="C32" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C34" r:id="rId26"/>
-    <hyperlink ref="C35" r:id="rId27"/>
-    <hyperlink ref="C36" r:id="rId28"/>
-    <hyperlink ref="C37" r:id="rId29"/>
-    <hyperlink ref="C38" r:id="rId30"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId31"/>
@@ -1525,7 +1564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:E1008"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6615,7 +6654,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1"/>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
